--- a/Client/public/plantillaCall.xlsx
+++ b/Client/public/plantillaCall.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erickchanjan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC1\Desktop\Nuevo\Manager_wsp\Manager_wsp\Client\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8289FCE-9ABF-F84B-BDD8-91BC4797F24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1832FFE-8EE1-4638-BB34-4FC4FBE8FC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-75880" yWindow="500" windowWidth="37480" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6915" yWindow="3255" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -90,6 +90,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -108,9 +109,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -148,9 +149,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -183,9 +184,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -218,9 +236,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -394,23 +429,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Client/public/plantillaCall.xlsx
+++ b/Client/public/plantillaCall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC1\Desktop\Nuevo\Manager_wsp\Manager_wsp\Client\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1832FFE-8EE1-4638-BB34-4FC4FBE8FC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F1F6D1-9B25-429E-A29D-CA4DD9BF87C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6915" yWindow="3255" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -432,12 +432,12 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -447,31 +447,33 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="3">
+        <v>932000076</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="A8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9" s="4"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
